--- a/data/trans_orig/P19C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>91793</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77402</v>
+        <v>77446</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>110473</v>
+        <v>109240</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2554052478878823</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2153648914285926</v>
+        <v>0.2154865581749427</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.307382233736725</v>
+        <v>0.3039491930324375</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>111</v>
@@ -765,19 +765,19 @@
         <v>108239</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>92813</v>
+        <v>91155</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>127958</v>
+        <v>126204</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2876763226427852</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2466773033844327</v>
+        <v>0.2422721826443781</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3400865816406447</v>
+        <v>0.3354244295238612</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>202</v>
@@ -786,19 +786,19 @@
         <v>200032</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>177611</v>
+        <v>175617</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>224346</v>
+        <v>225889</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2719103855059485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2414332261273118</v>
+        <v>0.2387231456451736</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3049622698063861</v>
+        <v>0.3070596928333111</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>267608</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>248928</v>
+        <v>250161</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281999</v>
+        <v>281955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7445947521121177</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6926177662632751</v>
+        <v>0.6960508069675624</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7846351085714075</v>
+        <v>0.7845134418250572</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>284</v>
@@ -836,19 +836,19 @@
         <v>268013</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248294</v>
+        <v>250048</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283439</v>
+        <v>285097</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7123236773572148</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6599134183593554</v>
+        <v>0.6645755704761386</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7533226966155677</v>
+        <v>0.7577278173556218</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>555</v>
@@ -857,19 +857,19 @@
         <v>535621</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>511307</v>
+        <v>509764</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>558042</v>
+        <v>560036</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7280896144940514</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6950377301936138</v>
+        <v>0.6929403071666888</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7585667738726882</v>
+        <v>0.7612768543548265</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>224920</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>200276</v>
+        <v>201327</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>249923</v>
+        <v>249669</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.390635298005274</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3478341811805708</v>
+        <v>0.3496586479441366</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4340585558597742</v>
+        <v>0.4336180319512322</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>200</v>
@@ -982,19 +982,19 @@
         <v>208307</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>188089</v>
+        <v>187043</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>234748</v>
+        <v>231872</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3810080463530844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.344026857552396</v>
+        <v>0.342113772363821</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.429370207935566</v>
+        <v>0.4241089132081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>416</v>
@@ -1003,19 +1003,19 @@
         <v>433228</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>401634</v>
+        <v>402027</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>465755</v>
+        <v>469266</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3859462634513775</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3578005057010825</v>
+        <v>0.3581503473776377</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4149239809685609</v>
+        <v>0.4180510161847241</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>350861</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>325858</v>
+        <v>326112</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>375505</v>
+        <v>374454</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.609364701994726</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5659414441402257</v>
+        <v>0.5663819680487678</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6521658188194291</v>
+        <v>0.6503413520558633</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>318</v>
@@ -1053,19 +1053,19 @@
         <v>338420</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>311979</v>
+        <v>314855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>358638</v>
+        <v>359684</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6189919536469156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5706297920644346</v>
+        <v>0.5758910867918999</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6559731424476041</v>
+        <v>0.657886227636179</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>656</v>
@@ -1074,19 +1074,19 @@
         <v>689280</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>656753</v>
+        <v>653242</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>720874</v>
+        <v>720481</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6140537365486225</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5850760190314391</v>
+        <v>0.5819489838152759</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6421994942989175</v>
+        <v>0.6418496526223623</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>180716</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>160983</v>
+        <v>161092</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>204363</v>
+        <v>206491</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.359324987566894</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3200874792100049</v>
+        <v>0.3203054357396437</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.406341900762885</v>
+        <v>0.4105726148972579</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>193</v>
@@ -1199,19 +1199,19 @@
         <v>205570</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>184535</v>
+        <v>181762</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>229169</v>
+        <v>227976</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3405926872766179</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3057411892382632</v>
+        <v>0.3011470822128975</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3796922284346194</v>
+        <v>0.3777163796725692</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>367</v>
@@ -1220,19 +1220,19 @@
         <v>386286</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>356917</v>
+        <v>353630</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>419726</v>
+        <v>417698</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3491070196104455</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3225651616507444</v>
+        <v>0.3195938307757101</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3793289988009217</v>
+        <v>0.3774959965990317</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>322217</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>298570</v>
+        <v>296442</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>341950</v>
+        <v>341841</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.640675012433106</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5936580992371151</v>
+        <v>0.5894273851027421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6799125207899951</v>
+        <v>0.6796945642603563</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>382</v>
@@ -1270,19 +1270,19 @@
         <v>397995</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>374396</v>
+        <v>375589</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>419030</v>
+        <v>421803</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.659407312723382</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6203077715653808</v>
+        <v>0.6222836203274309</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6942588107617368</v>
+        <v>0.6988529177871025</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>694</v>
@@ -1291,19 +1291,19 @@
         <v>720211</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>686771</v>
+        <v>688799</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>749580</v>
+        <v>752867</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6508929803895545</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6206710011990781</v>
+        <v>0.6225040034009683</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6774348383492553</v>
+        <v>0.6804061692242903</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>125081</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105261</v>
+        <v>106580</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>143948</v>
+        <v>144856</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.309035271120262</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2600654557203666</v>
+        <v>0.2633237834073157</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3556487090838679</v>
+        <v>0.3578930222027276</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>138</v>
@@ -1416,19 +1416,19 @@
         <v>141391</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>123048</v>
+        <v>121772</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161092</v>
+        <v>160399</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3226859165299915</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2808223579232463</v>
+        <v>0.277911196722255</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3676485478837141</v>
+        <v>0.3660664607662396</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>254</v>
@@ -1437,19 +1437,19 @@
         <v>266472</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>239260</v>
+        <v>242167</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>293983</v>
+        <v>294322</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3161312075428729</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2838480423364689</v>
+        <v>0.2872962365193407</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3487690324820305</v>
+        <v>0.3491706539180366</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>279667</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>260800</v>
+        <v>259892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>299487</v>
+        <v>298168</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.690964728879738</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.644351290916132</v>
+        <v>0.6421069777972723</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7399345442796331</v>
+        <v>0.7366762165926842</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>290</v>
@@ -1487,19 +1487,19 @@
         <v>296778</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>277077</v>
+        <v>277770</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>315121</v>
+        <v>316397</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6773140834700085</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6323514521162859</v>
+        <v>0.6339335392337604</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7191776420767537</v>
+        <v>0.7220888032777451</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>554</v>
@@ -1508,19 +1508,19 @@
         <v>576445</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>548934</v>
+        <v>548595</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>603657</v>
+        <v>600750</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6838687924571272</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6512309675179697</v>
+        <v>0.6508293460819633</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7161519576635311</v>
+        <v>0.7127037634806592</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>52785</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39583</v>
+        <v>41064</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66623</v>
+        <v>66037</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1938142303794778</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1453378484520878</v>
+        <v>0.1507783959878211</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2446243141127826</v>
+        <v>0.2424715351846263</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -1633,19 +1633,19 @@
         <v>79899</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>64068</v>
+        <v>64373</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95287</v>
+        <v>95436</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2504032148424158</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2007874450957356</v>
+        <v>0.2017458416023632</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2986271030721656</v>
+        <v>0.2990943387309525</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>132</v>
@@ -1654,19 +1654,19 @@
         <v>132684</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112845</v>
+        <v>112928</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>154231</v>
+        <v>155013</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2243444209704203</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1907992574843853</v>
+        <v>0.1909399131314947</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2607762131145306</v>
+        <v>0.2620977563471537</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>219564</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>205726</v>
+        <v>206312</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>232766</v>
+        <v>231285</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8061857696205221</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7553756858872174</v>
+        <v>0.7575284648153736</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8546621515479121</v>
+        <v>0.8492216040121788</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>234</v>
@@ -1704,19 +1704,19 @@
         <v>239183</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>223795</v>
+        <v>223646</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>255014</v>
+        <v>254709</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7495967851575842</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7013728969278344</v>
+        <v>0.7009056612690475</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7992125549042645</v>
+        <v>0.7982541583976369</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>456</v>
@@ -1725,19 +1725,19 @@
         <v>458747</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>437200</v>
+        <v>436418</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>478586</v>
+        <v>478503</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7756555790295797</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7392237868854693</v>
+        <v>0.7379022436528464</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.809200742515615</v>
+        <v>0.8090600868685057</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>21022</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13202</v>
+        <v>13264</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30633</v>
+        <v>30879</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09880441389334085</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06205000560282396</v>
+        <v>0.06233883586362824</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1439747549300694</v>
+        <v>0.145133798933086</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1850,19 +1850,19 @@
         <v>42993</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32534</v>
+        <v>32666</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54866</v>
+        <v>56089</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1747647047959219</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1322497831471156</v>
+        <v>0.132782993942211</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2230250889967524</v>
+        <v>0.227996978568358</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>67</v>
@@ -1871,19 +1871,19 @@
         <v>64015</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50575</v>
+        <v>51553</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79747</v>
+        <v>80165</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1395365272580708</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1102399846956681</v>
+        <v>0.1123711822122286</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1738277892703311</v>
+        <v>0.174737761250087</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>191743</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>182132</v>
+        <v>181886</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>199563</v>
+        <v>199501</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9011955861066592</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8560252450699306</v>
+        <v>0.8548662010669141</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.937949994397176</v>
+        <v>0.9376611641363719</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>221</v>
@@ -1921,19 +1921,19 @@
         <v>203014</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>191141</v>
+        <v>189918</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>213473</v>
+        <v>213341</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8252352952040781</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7769749110032473</v>
+        <v>0.772003021431642</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8677502168528842</v>
+        <v>0.8672170060577894</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>418</v>
@@ -1942,19 +1942,19 @@
         <v>394757</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>379025</v>
+        <v>378607</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>408197</v>
+        <v>407219</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8604634727419291</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8261722107296688</v>
+        <v>0.8252622387499128</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8897600153043317</v>
+        <v>0.8876288177877707</v>
       </c>
     </row>
     <row r="21">
@@ -2046,7 +2046,7 @@
         <v>6124</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2578</v>
+        <v>2333</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>12732</v>
@@ -2055,10 +2055,10 @@
         <v>0.04831360330391365</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02034033415149947</v>
+        <v>0.01840406622219767</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1004399649834362</v>
+        <v>0.1004347380901374</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2067,19 +2067,19 @@
         <v>10487</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4652</v>
+        <v>4721</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19682</v>
+        <v>19575</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05036625156234079</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0223442764192048</v>
+        <v>0.02267555225975484</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09453090008309036</v>
+        <v>0.09401599628350683</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -2088,19 +2088,19 @@
         <v>16611</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9906</v>
+        <v>9269</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26527</v>
+        <v>27002</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04958946450153915</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0295734182221749</v>
+        <v>0.02767209826759546</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07919104394475564</v>
+        <v>0.08061078005108549</v>
       </c>
     </row>
     <row r="23">
@@ -2120,16 +2120,16 @@
         <v>114032</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>124186</v>
+        <v>124431</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9516863966960863</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8995600350165638</v>
+        <v>0.8995652619098626</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9796596658485005</v>
+        <v>0.9815959337778023</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>173</v>
@@ -2138,19 +2138,19 @@
         <v>197721</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>188526</v>
+        <v>188633</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>203556</v>
+        <v>203487</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9496337484376592</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9054690999169096</v>
+        <v>0.9059840037164931</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9776557235807952</v>
+        <v>0.9773244477402452</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>297</v>
@@ -2159,19 +2159,19 @@
         <v>318361</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>308445</v>
+        <v>307970</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>325066</v>
+        <v>325703</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9504105354984609</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9208089560552445</v>
+        <v>0.9193892199489146</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9704265817778251</v>
+        <v>0.9723279017324046</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>702443</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>657263</v>
+        <v>653268</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>748181</v>
+        <v>747524</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.286157556173239</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2677525109718834</v>
+        <v>0.2661250448433759</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3047898823876637</v>
+        <v>0.3045224584705804</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>774</v>
@@ -2284,19 +2284,19 @@
         <v>796886</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>751906</v>
+        <v>750213</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>842620</v>
+        <v>842921</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2910457493136153</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2746177180439938</v>
+        <v>0.2739993273582496</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3077489944745603</v>
+        <v>0.3078592766871914</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1453</v>
@@ -2305,19 +2305,19 @@
         <v>1499329</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1428846</v>
+        <v>1435999</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1563640</v>
+        <v>1565475</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2887349793938603</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2751616476731209</v>
+        <v>0.2765391479678251</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3011198085807689</v>
+        <v>0.3014732337399176</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1752299</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1706561</v>
+        <v>1707218</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1797479</v>
+        <v>1801474</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.713842443826761</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6952101176123363</v>
+        <v>0.6954775415294197</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7322474890281166</v>
+        <v>0.7338749551566242</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1902</v>
@@ -2355,19 +2355,19 @@
         <v>1941123</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1895389</v>
+        <v>1895088</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1986103</v>
+        <v>1987796</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7089542506863847</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6922510055254396</v>
+        <v>0.6921407233128085</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7253822819560062</v>
+        <v>0.7260006726417502</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3630</v>
@@ -2376,19 +2376,19 @@
         <v>3693421</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3629110</v>
+        <v>3627275</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3763904</v>
+        <v>3756751</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7112650206061397</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6988801914192303</v>
+        <v>0.6985267662600824</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7248383523268791</v>
+        <v>0.7234608520321749</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>88778</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>72743</v>
+        <v>72748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>104902</v>
+        <v>107304</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2341330297161633</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1918449966477532</v>
+        <v>0.1918568239950319</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2766577907701384</v>
+        <v>0.2829935462102731</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -2744,19 +2744,19 @@
         <v>97895</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81565</v>
+        <v>81113</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115467</v>
+        <v>117556</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2638748395489466</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2198567958168117</v>
+        <v>0.2186374931257883</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.31124037319189</v>
+        <v>0.3168699641805901</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>182</v>
@@ -2765,19 +2765,19 @@
         <v>186673</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>164016</v>
+        <v>164793</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>210971</v>
+        <v>213781</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.248841675756296</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2186393440823159</v>
+        <v>0.2196752194215393</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2812329559988039</v>
+        <v>0.2849776991710939</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>290398</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274274</v>
+        <v>271872</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>306433</v>
+        <v>306428</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7658669702838368</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7233422092298617</v>
+        <v>0.7170064537897269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8081550033522469</v>
+        <v>0.8081431760049682</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>267</v>
@@ -2815,19 +2815,19 @@
         <v>273096</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>255524</v>
+        <v>253435</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>289426</v>
+        <v>289878</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7361251604510535</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6887596268081098</v>
+        <v>0.6831300358194098</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7801432041831883</v>
+        <v>0.7813625068742116</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>553</v>
@@ -2836,19 +2836,19 @@
         <v>563493</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>539195</v>
+        <v>536385</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>586150</v>
+        <v>585373</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.751158324243704</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7187670440011961</v>
+        <v>0.7150223008289064</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7813606559176842</v>
+        <v>0.7803247805784608</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>216043</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>190188</v>
+        <v>193043</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>239264</v>
+        <v>239480</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3617197006527172</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3184312234240605</v>
+        <v>0.3232104525904166</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4005977003335231</v>
+        <v>0.4009590022865007</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>191</v>
@@ -2961,19 +2961,19 @@
         <v>202150</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>179252</v>
+        <v>179561</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>225496</v>
+        <v>225053</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3610780313131849</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3201789241353748</v>
+        <v>0.3207296528483025</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4027779703985921</v>
+        <v>0.4019872055389298</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>402</v>
@@ -2982,19 +2982,19 @@
         <v>418193</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>384747</v>
+        <v>384506</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>451036</v>
+        <v>451097</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3614092401229253</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3325045368107139</v>
+        <v>0.3322961876147571</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3897928592641348</v>
+        <v>0.3898452164609915</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>381224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>358003</v>
+        <v>357787</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>407079</v>
+        <v>404224</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6382802993472828</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5994022996664771</v>
+        <v>0.5990409977134994</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6815687765759401</v>
+        <v>0.6767895474095836</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>332</v>
@@ -3032,19 +3032,19 @@
         <v>357701</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>334355</v>
+        <v>334798</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>380599</v>
+        <v>380290</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6389219686868151</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5972220296014078</v>
+        <v>0.5980127944610701</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6798210758646251</v>
+        <v>0.6792703471516975</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>701</v>
@@ -3053,19 +3053,19 @@
         <v>738925</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>706082</v>
+        <v>706021</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>772371</v>
+        <v>772612</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6385907598770747</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6102071407358652</v>
+        <v>0.6101547835390083</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.667495463189286</v>
+        <v>0.6677038123852428</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>227583</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>202788</v>
+        <v>203257</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>252818</v>
+        <v>251951</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3879362337409066</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3456701657831197</v>
+        <v>0.3464700316697792</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4309515043682147</v>
+        <v>0.4294741857400793</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>249</v>
@@ -3178,19 +3178,19 @@
         <v>260823</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>235779</v>
+        <v>234856</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>286642</v>
+        <v>286075</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3949523141344309</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.357028661919652</v>
+        <v>0.3556318112208638</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4340489899321567</v>
+        <v>0.4331903674184652</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>467</v>
@@ -3199,19 +3199,19 @@
         <v>488407</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>450573</v>
+        <v>453391</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>521957</v>
+        <v>524798</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3916517153384961</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3613133267123103</v>
+        <v>0.3635727690026142</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4185560866336999</v>
+        <v>0.4208342613577773</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>359068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>333833</v>
+        <v>334700</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>383863</v>
+        <v>383394</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6120637662590934</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5690484956317849</v>
+        <v>0.5705258142599208</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6543298342168803</v>
+        <v>0.6535299683302208</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>373</v>
@@ -3249,19 +3249,19 @@
         <v>399569</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>373750</v>
+        <v>374317</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>424613</v>
+        <v>425536</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.605047685865569</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5659510100678432</v>
+        <v>0.5668096325815347</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.642971338080348</v>
+        <v>0.6443681887791362</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>718</v>
@@ -3270,19 +3270,19 @@
         <v>758636</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>725086</v>
+        <v>722245</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>796470</v>
+        <v>793652</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6083482846615038</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5814439133663002</v>
+        <v>0.5791657386422226</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6386866732876897</v>
+        <v>0.6364272309973857</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>184452</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161246</v>
+        <v>161073</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>206861</v>
+        <v>206622</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3397913404751425</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2970415289516925</v>
+        <v>0.296722963308427</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.381072387255663</v>
+        <v>0.3806312750213762</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>193</v>
@@ -3395,19 +3395,19 @@
         <v>219221</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>194963</v>
+        <v>193595</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>242347</v>
+        <v>243934</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3891367660931454</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3460768827371125</v>
+        <v>0.3436498298941415</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4301890309210306</v>
+        <v>0.4330047580858098</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>357</v>
@@ -3416,19 +3416,19 @@
         <v>403673</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>369896</v>
+        <v>372949</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>440600</v>
+        <v>440242</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.364921540768101</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3343877388420241</v>
+        <v>0.3371470560994944</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3983037942591146</v>
+        <v>0.3979800925106804</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>358387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>335978</v>
+        <v>336217</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>381593</v>
+        <v>381766</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6602086595248575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6189276127443371</v>
+        <v>0.6193687249786238</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7029584710483074</v>
+        <v>0.703277036691573</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>300</v>
@@ -3466,19 +3466,19 @@
         <v>344130</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>321004</v>
+        <v>319417</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>368388</v>
+        <v>369756</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6108632339068546</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5698109690789694</v>
+        <v>0.5669952419141902</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6539231172628874</v>
+        <v>0.6563501701058585</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>619</v>
@@ -3487,19 +3487,19 @@
         <v>702517</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>665590</v>
+        <v>665948</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>736294</v>
+        <v>733241</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6350784592318991</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6016962057408854</v>
+        <v>0.6020199074893196</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6656122611579758</v>
+        <v>0.6628529439005056</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>84959</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70715</v>
+        <v>68503</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103745</v>
+        <v>102305</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2364910922891363</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1968400968589209</v>
+        <v>0.1906840899875331</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2887826120773515</v>
+        <v>0.2847745198576818</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>100</v>
@@ -3612,19 +3612,19 @@
         <v>112721</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>95127</v>
+        <v>94270</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>133291</v>
+        <v>133124</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2884997481434994</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.243469030521654</v>
+        <v>0.2412746048798781</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3411455810431986</v>
+        <v>0.3407179929856965</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>179</v>
@@ -3633,19 +3633,19 @@
         <v>197681</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>171832</v>
+        <v>172937</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>223791</v>
+        <v>224148</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2635864699893305</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2291201435890805</v>
+        <v>0.2305931402936025</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2984015417647128</v>
+        <v>0.2988777992018158</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>274290</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>255504</v>
+        <v>256944</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>288534</v>
+        <v>290746</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7635089077108637</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7112173879226487</v>
+        <v>0.7152254801423181</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8031599031410791</v>
+        <v>0.8093159100124669</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>253</v>
@@ -3683,19 +3683,19 @@
         <v>277994</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>257424</v>
+        <v>257591</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>295588</v>
+        <v>296445</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7115002518565006</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6588544189568015</v>
+        <v>0.6592820070143036</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.756530969478346</v>
+        <v>0.7587253951201218</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>505</v>
@@ -3704,19 +3704,19 @@
         <v>552284</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>526174</v>
+        <v>525817</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>578133</v>
+        <v>577028</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7364135300106696</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7015984582352872</v>
+        <v>0.7011222007981838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7708798564109194</v>
+        <v>0.7694068597063974</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>35192</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24107</v>
+        <v>24345</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50183</v>
+        <v>48416</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1345791416098456</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09218836552934571</v>
+        <v>0.09309738128827758</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1919044754179977</v>
+        <v>0.1851483078091055</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>53</v>
@@ -3829,19 +3829,19 @@
         <v>54607</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42621</v>
+        <v>42132</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68516</v>
+        <v>69138</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1816661555701777</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1417917756697327</v>
+        <v>0.1401652138175211</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.22793901425058</v>
+        <v>0.2300094577673363</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>84</v>
@@ -3850,19 +3850,19 @@
         <v>89799</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>72869</v>
+        <v>73436</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>109318</v>
+        <v>108136</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1597599960628722</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1296404598588333</v>
+        <v>0.1306479642802996</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1944853908683367</v>
+        <v>0.1923836227210509</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>226306</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>211315</v>
+        <v>213082</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>237391</v>
+        <v>237153</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8654208583901544</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8080955245820025</v>
+        <v>0.8148516921908945</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9078116344706543</v>
+        <v>0.9069026187117225</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>238</v>
@@ -3900,19 +3900,19 @@
         <v>245982</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>232073</v>
+        <v>231451</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>257968</v>
+        <v>258457</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8183338444298224</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7720609857494199</v>
+        <v>0.7699905422326636</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8582082243302673</v>
+        <v>0.8598347861824789</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>445</v>
@@ -3921,19 +3921,19 @@
         <v>472288</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>452769</v>
+        <v>453951</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>489218</v>
+        <v>488651</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8402400039371278</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8055146091316633</v>
+        <v>0.8076163772789494</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8703595401411668</v>
+        <v>0.8693520357197007</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>26854</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18498</v>
+        <v>18314</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40179</v>
+        <v>37980</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1452161531141976</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1000277762005303</v>
+        <v>0.09903654426684731</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2172686817762499</v>
+        <v>0.2053788991169515</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -4046,19 +4046,19 @@
         <v>35718</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24823</v>
+        <v>25811</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48293</v>
+        <v>48532</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1181111299304219</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08208337536653643</v>
+        <v>0.08535100988776308</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1596934871769339</v>
+        <v>0.1604819846174112</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -4067,19 +4067,19 @@
         <v>62573</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48756</v>
+        <v>48018</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>79989</v>
+        <v>77844</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1283964211270043</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1000449329580805</v>
+        <v>0.09853052051877272</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1641340498485838</v>
+        <v>0.1597334353471611</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>158072</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>144747</v>
+        <v>146946</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>166428</v>
+        <v>166612</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8547838468858024</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7827313182237494</v>
+        <v>0.7946211008830477</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8999722237994696</v>
+        <v>0.9009634557331527</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>241</v>
@@ -4117,19 +4117,19 @@
         <v>266695</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>254120</v>
+        <v>253881</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>277590</v>
+        <v>276602</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8818888700695781</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8403065128230661</v>
+        <v>0.8395180153825887</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9179166246334636</v>
+        <v>0.914648990112237</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>382</v>
@@ -4138,19 +4138,19 @@
         <v>424766</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>407350</v>
+        <v>409495</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>438583</v>
+        <v>439321</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8716035788729957</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8358659501514161</v>
+        <v>0.8402665646528382</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8999550670419193</v>
+        <v>0.9014694794812271</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>863862</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>814709</v>
+        <v>810508</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>912650</v>
+        <v>912228</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2966959201333336</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2798144152817445</v>
+        <v>0.2783713029326867</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3134524769298308</v>
+        <v>0.3133075343370686</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>913</v>
@@ -4263,19 +4263,19 @@
         <v>983135</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>929732</v>
+        <v>929947</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1034933</v>
+        <v>1032387</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3122748360207148</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2953121400022042</v>
+        <v>0.2953803912842574</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3287272208725144</v>
+        <v>0.32791853023361</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1727</v>
@@ -4284,19 +4284,19 @@
         <v>1846997</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1777719</v>
+        <v>1772144</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1922087</v>
+        <v>1916889</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3047896290246793</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2933573524743565</v>
+        <v>0.2924374082411958</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.317180932219856</v>
+        <v>0.3163231355211248</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2047744</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1998956</v>
+        <v>1999378</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2096897</v>
+        <v>2101098</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7033040798666664</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6865475230701693</v>
+        <v>0.6866924656629314</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7201855847182558</v>
+        <v>0.7216286970673133</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2004</v>
@@ -4334,19 +4334,19 @@
         <v>2165167</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2113369</v>
+        <v>2115915</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2218570</v>
+        <v>2218355</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6877251639792852</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6712727791274855</v>
+        <v>0.67208146976639</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7046878599977958</v>
+        <v>0.7046196087157426</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3923</v>
@@ -4355,19 +4355,19 @@
         <v>4212911</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4137821</v>
+        <v>4143019</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4282189</v>
+        <v>4287764</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6952103709753207</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.682819067780144</v>
+        <v>0.6836768644788751</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7066426475256435</v>
+        <v>0.7075625917588039</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>118032</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100126</v>
+        <v>100692</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>138663</v>
+        <v>135651</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3345204920144876</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2837711065306754</v>
+        <v>0.2853743983624534</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3929912198173093</v>
+        <v>0.384454448307758</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -4723,19 +4723,19 @@
         <v>118591</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102075</v>
+        <v>103186</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>136908</v>
+        <v>136265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3369735499476156</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.290044861010221</v>
+        <v>0.2932007056473016</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.389021512843626</v>
+        <v>0.3871938019858588</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>232</v>
@@ -4744,19 +4744,19 @@
         <v>236623</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>209945</v>
+        <v>210914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>259187</v>
+        <v>260463</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3357454382765019</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2978915995303501</v>
+        <v>0.2992661246824549</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3677606535709629</v>
+        <v>0.3695709540382536</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>234808</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>214177</v>
+        <v>217189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>252714</v>
+        <v>252148</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6654795079855124</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6070087801826908</v>
+        <v>0.6155455516922421</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7162288934693247</v>
+        <v>0.7146256016375465</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>239</v>
@@ -4794,19 +4794,19 @@
         <v>233339</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>215022</v>
+        <v>215665</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>249855</v>
+        <v>248744</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6630264500523844</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.610978487156374</v>
+        <v>0.6128061980141412</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7099551389897792</v>
+        <v>0.7067992943526983</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>458</v>
@@ -4815,19 +4815,19 @@
         <v>468147</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>445583</v>
+        <v>444307</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>494825</v>
+        <v>493856</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6642545617234981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.632239346429037</v>
+        <v>0.6304290459617466</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.70210840046965</v>
+        <v>0.7007338753175456</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>199818</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>178161</v>
+        <v>178852</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>221565</v>
+        <v>221368</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4052470971806245</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3613235400583861</v>
+        <v>0.3627265070635127</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4493505080206392</v>
+        <v>0.4489515406812042</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>194</v>
@@ -4940,19 +4940,19 @@
         <v>189037</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>167893</v>
+        <v>167458</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>210171</v>
+        <v>211070</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3805707270283421</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3380023367398634</v>
+        <v>0.3371283612288781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4231168865591993</v>
+        <v>0.4249284997942085</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>390</v>
@@ -4961,19 +4961,19 @@
         <v>388855</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>359505</v>
+        <v>357800</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>421332</v>
+        <v>419059</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3928635138759988</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3632104524906338</v>
+        <v>0.3614879004846177</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4256748950900492</v>
+        <v>0.4233785090321024</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>293260</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>271513</v>
+        <v>271710</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>314917</v>
+        <v>314226</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5947529028193755</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5506494919793605</v>
+        <v>0.5510484593187955</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6386764599416137</v>
+        <v>0.6372734929364872</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>316</v>
@@ -5011,19 +5011,19 @@
         <v>307683</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>286549</v>
+        <v>285650</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>328827</v>
+        <v>329262</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6194292729716578</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5768831134408007</v>
+        <v>0.5750715002057912</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6619976632601369</v>
+        <v>0.6628716387711219</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>595</v>
@@ -5032,19 +5032,19 @@
         <v>600942</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>568465</v>
+        <v>570738</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>630292</v>
+        <v>631997</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6071364861240013</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5743251049099508</v>
+        <v>0.5766214909678976</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6367895475093661</v>
+        <v>0.6385120995153825</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>236597</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>213022</v>
+        <v>211206</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>261589</v>
+        <v>258766</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4241147893129</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.38185493182433</v>
+        <v>0.3785995979265623</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4689153860497439</v>
+        <v>0.4638540294859712</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>256</v>
@@ -5157,19 +5157,19 @@
         <v>254978</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>232057</v>
+        <v>232519</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>277713</v>
+        <v>279761</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4449264472542399</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.404929373694685</v>
+        <v>0.4057361557903014</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4845981019776622</v>
+        <v>0.4881702911555167</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>483</v>
@@ -5178,19 +5178,19 @@
         <v>491575</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>460616</v>
+        <v>458559</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>526526</v>
+        <v>522979</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4346606631907834</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4072864114255657</v>
+        <v>0.4054669033932432</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.465565107291635</v>
+        <v>0.4624285610107304</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>321263</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296271</v>
+        <v>299094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>344838</v>
+        <v>346654</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5758852106871001</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5310846139502561</v>
+        <v>0.5361459705140286</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6181450681756699</v>
+        <v>0.6214004020734377</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>320</v>
@@ -5228,19 +5228,19 @@
         <v>318102</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>295367</v>
+        <v>293319</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>341023</v>
+        <v>340561</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5550735527457601</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5154018980223378</v>
+        <v>0.5118297088444833</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.595070626305315</v>
+        <v>0.5942638442096986</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>624</v>
@@ -5249,19 +5249,19 @@
         <v>639365</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>604414</v>
+        <v>607961</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>670324</v>
+        <v>672381</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5653393368092167</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5344348927083652</v>
+        <v>0.5375714389892695</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5927135885744343</v>
+        <v>0.5945330966067568</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>191185</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>167839</v>
+        <v>166551</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>213283</v>
+        <v>211752</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3731378514814339</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3275727849877715</v>
+        <v>0.3250597058021225</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.41626646242109</v>
+        <v>0.4132770381688911</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>223</v>
@@ -5374,19 +5374,19 @@
         <v>239762</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>216586</v>
+        <v>216251</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>264843</v>
+        <v>264569</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4400238215965313</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.397489202800312</v>
+        <v>0.3968760309135341</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4860538188878353</v>
+        <v>0.4855519378003552</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>395</v>
@@ -5395,19 +5395,19 @@
         <v>430947</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>399949</v>
+        <v>396644</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>463031</v>
+        <v>464302</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4076092639312457</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3782900704046053</v>
+        <v>0.3751639945713521</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4379554601775474</v>
+        <v>0.4391574861698728</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>321187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>299089</v>
+        <v>300620</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>344533</v>
+        <v>345821</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6268621485185661</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.58373353757891</v>
+        <v>0.5867229618311088</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6724272150122284</v>
+        <v>0.6749402941978774</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>284</v>
@@ -5445,19 +5445,19 @@
         <v>305122</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>280041</v>
+        <v>280315</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>328298</v>
+        <v>328633</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5599761784034687</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5139461811121646</v>
+        <v>0.5144480621996448</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.602510797199688</v>
+        <v>0.6031239690864658</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>575</v>
@@ -5466,19 +5466,19 @@
         <v>626309</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>594225</v>
+        <v>592954</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>657307</v>
+        <v>660612</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5923907360687544</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5620445398224525</v>
+        <v>0.5608425138301273</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6217099295953946</v>
+        <v>0.6248360054286479</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>104424</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84595</v>
+        <v>87076</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121598</v>
+        <v>125012</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2814658860748575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2280165706207967</v>
+        <v>0.2347053365406319</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3277551927566293</v>
+        <v>0.3369577388662936</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>117</v>
@@ -5591,19 +5591,19 @@
         <v>137419</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>117755</v>
+        <v>119381</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>155089</v>
+        <v>156149</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3471292284081993</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2974574787938234</v>
+        <v>0.3015628543052579</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3917653204970803</v>
+        <v>0.3944429926235151</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>211</v>
@@ -5612,19 +5612,19 @@
         <v>241844</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>215891</v>
+        <v>214996</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>269620</v>
+        <v>270210</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3153623603983598</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2815199929297453</v>
+        <v>0.280354033759907</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3515825827183313</v>
+        <v>0.3523519098034817</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>266578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>249404</v>
+        <v>245990</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>286407</v>
+        <v>283926</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7185341139251425</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6722448072433707</v>
+        <v>0.6630422611337066</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7719834293792034</v>
+        <v>0.7652946634593689</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>228</v>
@@ -5662,19 +5662,19 @@
         <v>258454</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>240784</v>
+        <v>239724</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>278118</v>
+        <v>276492</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6528707715918006</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6082346795029197</v>
+        <v>0.605557007376485</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7025425212061764</v>
+        <v>0.698437145694742</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>463</v>
@@ -5683,19 +5683,19 @@
         <v>525031</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>497255</v>
+        <v>496665</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>550984</v>
+        <v>551879</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6846376396016403</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6484174172816691</v>
+        <v>0.6476480901965184</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7184800070702549</v>
+        <v>0.7196459662400932</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>50117</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38486</v>
+        <v>38744</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63087</v>
+        <v>63383</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2177818885405851</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1672409419231144</v>
+        <v>0.1683610521941115</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2741421329438329</v>
+        <v>0.2754264599688554</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>77</v>
@@ -5808,19 +5808,19 @@
         <v>82135</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>68173</v>
+        <v>65596</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>99969</v>
+        <v>97282</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2965718369471417</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2461587140627847</v>
+        <v>0.2368523624571021</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3609674705915433</v>
+        <v>0.351265133524746</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>127</v>
@@ -5829,19 +5829,19 @@
         <v>132252</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>114112</v>
+        <v>113555</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>154626</v>
+        <v>152694</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.260814564581786</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2250393079112631</v>
+        <v>0.2239424982096057</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3049369433697868</v>
+        <v>0.3011267140942605</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>180008</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>167038</v>
+        <v>166742</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>191639</v>
+        <v>191381</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7822181114594149</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7258578670561671</v>
+        <v>0.7245735400311445</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8327590580768857</v>
+        <v>0.8316389478058884</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>183</v>
@@ -5879,19 +5879,19 @@
         <v>194813</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>176979</v>
+        <v>179666</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>208775</v>
+        <v>211352</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7034281630528583</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6390325294084565</v>
+        <v>0.648734866475254</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7538412859372153</v>
+        <v>0.7631476375428979</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>359</v>
@@ -5900,19 +5900,19 @@
         <v>374822</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>352448</v>
+        <v>354380</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>392962</v>
+        <v>393519</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7391854354182139</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6950630566302125</v>
+        <v>0.6988732859057394</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7749606920887367</v>
+        <v>0.7760575017903941</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>28277</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20279</v>
+        <v>20535</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37486</v>
+        <v>38385</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1922872320287022</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1379018505789308</v>
+        <v>0.1396414810106685</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.254911263289358</v>
+        <v>0.2610199722902641</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -6025,19 +6025,19 @@
         <v>44350</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31656</v>
+        <v>32476</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57375</v>
+        <v>57969</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1946196018293629</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1389143113721098</v>
+        <v>0.1425121937698002</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2517785748121503</v>
+        <v>0.2543846038413808</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -6046,19 +6046,19 @@
         <v>72627</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57903</v>
+        <v>58172</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>88552</v>
+        <v>88766</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1937048028751406</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1544354614396768</v>
+        <v>0.1551523104515431</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2361801337478524</v>
+        <v>0.2367495144341783</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>118780</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>109571</v>
+        <v>108672</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>126778</v>
+        <v>126522</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8077127679712979</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7450887367106415</v>
+        <v>0.7389800277097365</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8620981494210688</v>
+        <v>0.8603585189893317</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>135</v>
@@ -6096,19 +6096,19 @@
         <v>183529</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>170504</v>
+        <v>169910</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>196223</v>
+        <v>195403</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8053803981706371</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7482214251878496</v>
+        <v>0.7456153961586187</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8610856886278898</v>
+        <v>0.8574878062301993</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>277</v>
@@ -6117,19 +6117,19 @@
         <v>302309</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>286384</v>
+        <v>286170</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>317033</v>
+        <v>316764</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8062951971248594</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7638198662521476</v>
+        <v>0.7632504855658218</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8455645385603231</v>
+        <v>0.8448476895484569</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>928451</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>879663</v>
+        <v>883588</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>982319</v>
+        <v>981301</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3484740703217505</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3301625166294197</v>
+        <v>0.3316356184361788</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3686921277813537</v>
+        <v>0.3683103137927002</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1022</v>
@@ -6242,19 +6242,19 @@
         <v>1066273</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1015213</v>
+        <v>1012901</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1120433</v>
+        <v>1116537</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.37187151373609</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3540638477755765</v>
+        <v>0.3532576810720362</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3907604812116258</v>
+        <v>0.389401699298678</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1906</v>
@@ -6263,19 +6263,19 @@
         <v>1994724</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1926924</v>
+        <v>1918936</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2071473</v>
+        <v>2065306</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3606020723469251</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.348345396714963</v>
+        <v>0.3469013331659558</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3744766992365898</v>
+        <v>0.37336181333963</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>1735882</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1682014</v>
+        <v>1683032</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1784670</v>
+        <v>1780745</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6515259296782495</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6313078722186463</v>
+        <v>0.6316896862072997</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6698374833705804</v>
+        <v>0.6683643815638212</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1705</v>
@@ -6313,19 +6313,19 @@
         <v>1801042</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1746882</v>
+        <v>1750778</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1852102</v>
+        <v>1854414</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.62812848626391</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6092395187883742</v>
+        <v>0.610598300701322</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6459361522244235</v>
+        <v>0.6467423189279637</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3351</v>
@@ -6334,19 +6334,19 @@
         <v>3536924</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3460175</v>
+        <v>3466342</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3604724</v>
+        <v>3612712</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6393979276530749</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6255233007634102</v>
+        <v>0.6266381866603701</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6516546032850371</v>
+        <v>0.6530986668340443</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>170139</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137913</v>
+        <v>138790</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>201335</v>
+        <v>197042</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4490875517439302</v>
+        <v>0.4490875517439301</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.364027318434076</v>
+        <v>0.3663413597993369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5314309106209637</v>
+        <v>0.5200991242290983</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -6702,19 +6702,19 @@
         <v>144522</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>119388</v>
+        <v>119894</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>168915</v>
+        <v>167529</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4210524946021994</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3478266731018284</v>
+        <v>0.3493017777736638</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4921196010187307</v>
+        <v>0.4880817202991518</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>155</v>
@@ -6723,19 +6723,19 @@
         <v>314661</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>275522</v>
+        <v>273448</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>359311</v>
+        <v>354553</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4357613732643117</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3815603390907524</v>
+        <v>0.3786878616672337</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4975954732226534</v>
+        <v>0.4910062189235583</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>208715</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>177519</v>
+        <v>181812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>240941</v>
+        <v>240064</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5509124482560699</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4685690893790362</v>
+        <v>0.4799008757709017</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6359726815659239</v>
+        <v>0.6336586402006633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>111</v>
@@ -6773,19 +6773,19 @@
         <v>198718</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>174325</v>
+        <v>175711</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>223852</v>
+        <v>223346</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5789475053978005</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5078803989812692</v>
+        <v>0.5119182797008482</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.652173326898172</v>
+        <v>0.6506982222263362</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>197</v>
@@ -6794,19 +6794,19 @@
         <v>407433</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>362783</v>
+        <v>367541</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>446572</v>
+        <v>448646</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5642386267356881</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5024045267773465</v>
+        <v>0.5089937810764417</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6184396609092474</v>
+        <v>0.6213121383327661</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>249887</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>222348</v>
+        <v>220312</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>276789</v>
+        <v>274737</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5604190977124851</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4986572967395473</v>
+        <v>0.4940926355421932</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6207524443181488</v>
+        <v>0.6161501329850306</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>244</v>
@@ -6919,19 +6919,19 @@
         <v>260120</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>236795</v>
+        <v>235449</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>283811</v>
+        <v>281882</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5389869140934815</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.490655290697331</v>
+        <v>0.487867867057305</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5880765479134796</v>
+        <v>0.5840784188589506</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>398</v>
@@ -6940,19 +6940,19 @@
         <v>510007</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>477021</v>
+        <v>473939</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>545829</v>
+        <v>545328</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5492792521690846</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5137532550994918</v>
+        <v>0.5104343388758729</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5878597354889761</v>
+        <v>0.5873202853562096</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>196006</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>169104</v>
+        <v>171156</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>223545</v>
+        <v>225581</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.439580902287515</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3792475556818512</v>
+        <v>0.3838498670149695</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5013427032604526</v>
+        <v>0.5059073644578067</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>198</v>
@@ -6990,19 +6990,19 @@
         <v>222489</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>198798</v>
+        <v>200727</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>245814</v>
+        <v>247160</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4610130859065184</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4119234520865205</v>
+        <v>0.4159215811410495</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5093447093026692</v>
+        <v>0.512132132942695</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>325</v>
@@ -7011,19 +7011,19 @@
         <v>418495</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>382673</v>
+        <v>383174</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>451481</v>
+        <v>454563</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4507207478309154</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4121402645110236</v>
+        <v>0.4126797146437907</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4862467449005083</v>
+        <v>0.4895656611241271</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>329066</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>303099</v>
+        <v>302694</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>357570</v>
+        <v>354013</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5474174113063326</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5042210183682555</v>
+        <v>0.503547390832922</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5948360115448934</v>
+        <v>0.5889178286574296</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>468</v>
@@ -7136,19 +7136,19 @@
         <v>341049</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>319897</v>
+        <v>320988</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>363064</v>
+        <v>361361</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5615984689880406</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5267691757541373</v>
+        <v>0.5285646547809877</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5978511887897823</v>
+        <v>0.5950467315653968</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>754</v>
@@ -7157,19 +7157,19 @@
         <v>670114</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>635106</v>
+        <v>638397</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>703918</v>
+        <v>705485</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5545440728006661</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.52557358635623</v>
+        <v>0.5282975884014838</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5825180922107924</v>
+        <v>0.5838146405711552</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>272058</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>243554</v>
+        <v>247111</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>298025</v>
+        <v>298430</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4525825886936672</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4051639884551069</v>
+        <v>0.4110821713425705</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4957789816317446</v>
+        <v>0.4964526091670778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>357</v>
@@ -7207,19 +7207,19 @@
         <v>266233</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>244218</v>
+        <v>245921</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>287385</v>
+        <v>286294</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4384015310119595</v>
+        <v>0.4384015310119594</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4021488112102176</v>
+        <v>0.4049532684346032</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4732308242458627</v>
+        <v>0.4714353452190121</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>598</v>
@@ -7228,19 +7228,19 @@
         <v>538291</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>504487</v>
+        <v>502920</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>573299</v>
+        <v>570008</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4454559271993338</v>
+        <v>0.4454559271993339</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4174819077892075</v>
+        <v>0.4161853594288448</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4744264136437701</v>
+        <v>0.4717024115985163</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>338762</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>311160</v>
+        <v>314030</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>365948</v>
+        <v>364743</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5001089261993924</v>
+        <v>0.5001089261993925</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4593608608924904</v>
+        <v>0.4635966929198209</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5402428369716128</v>
+        <v>0.5384639151418192</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>612</v>
@@ -7353,19 +7353,19 @@
         <v>392262</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>370770</v>
+        <v>369500</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>414880</v>
+        <v>413179</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5434820758948206</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.513704793973019</v>
+        <v>0.5119444931026039</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.574819903353413</v>
+        <v>0.5724632819914102</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>938</v>
@@ -7374,19 +7374,19 @@
         <v>731024</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>697417</v>
+        <v>694959</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>764278</v>
+        <v>764374</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5224833842868966</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4984640340412681</v>
+        <v>0.4967065691657249</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5462513128823272</v>
+        <v>0.5463198532433405</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>338615</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>311429</v>
+        <v>312634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>366217</v>
+        <v>363347</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4998910738006075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4597571630283873</v>
+        <v>0.4615360848581807</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5406391391075098</v>
+        <v>0.536403307080179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>505</v>
@@ -7424,19 +7424,19 @@
         <v>329495</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>306877</v>
+        <v>308578</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>350987</v>
+        <v>352257</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4565179241051794</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.425180096646587</v>
+        <v>0.4275367180085897</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4862952060269809</v>
+        <v>0.488055506897396</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>819</v>
@@ -7445,19 +7445,19 @@
         <v>668109</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>634855</v>
+        <v>634759</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>701716</v>
+        <v>704174</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4775166157131033</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4537486871176729</v>
+        <v>0.4536801467566594</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.501535965958732</v>
+        <v>0.5032934308342751</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>273933</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>249916</v>
+        <v>249323</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>297519</v>
+        <v>297353</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4616687794580332</v>
+        <v>0.461668779458033</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4211912693847455</v>
+        <v>0.4201926923693799</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5014184164846377</v>
+        <v>0.5011377598395959</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>510</v>
@@ -7570,19 +7570,19 @@
         <v>306476</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>288198</v>
+        <v>287292</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>324387</v>
+        <v>324659</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5143510389484296</v>
+        <v>0.5143510389484295</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4836765368078793</v>
+        <v>0.482155571893202</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5444108601852201</v>
+        <v>0.5448682889718198</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>810</v>
@@ -7591,19 +7591,19 @@
         <v>580409</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>548345</v>
+        <v>551057</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>610376</v>
+        <v>609220</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4880651468230076</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4611024382039641</v>
+        <v>0.4633834821502099</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5132642740583827</v>
+        <v>0.5122923563299207</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>319422</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>295836</v>
+        <v>296002</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>343439</v>
+        <v>344032</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5383312205419669</v>
+        <v>0.5383312205419668</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4985815835153623</v>
+        <v>0.4988622401604041</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5788087306152545</v>
+        <v>0.5798073076306202</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>471</v>
@@ -7641,19 +7641,19 @@
         <v>289373</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>271462</v>
+        <v>271190</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>307651</v>
+        <v>308557</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4856489610515705</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4555891398147799</v>
+        <v>0.4551317110281803</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5163234631921204</v>
+        <v>0.5178444281067981</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>816</v>
@@ -7662,19 +7662,19 @@
         <v>608795</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>578828</v>
+        <v>579984</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>640859</v>
+        <v>638147</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5119348531769922</v>
+        <v>0.5119348531769923</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4867357259416171</v>
+        <v>0.4877076436700793</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5388975617960359</v>
+        <v>0.5366165178497903</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>161130</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>146122</v>
+        <v>143760</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>179614</v>
+        <v>176429</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4051108535533712</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3673768441596057</v>
+        <v>0.3614396891896828</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4515817393861216</v>
+        <v>0.4435753118146119</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>354</v>
@@ -7787,19 +7787,19 @@
         <v>187807</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>172885</v>
+        <v>173008</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>204535</v>
+        <v>201230</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4378546379476581</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4030661475211073</v>
+        <v>0.4033533456025292</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4768558863535368</v>
+        <v>0.4691497364332732</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>578</v>
@@ -7808,19 +7808,19 @@
         <v>348937</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>328644</v>
+        <v>326224</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>373296</v>
+        <v>371844</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4221002821920626</v>
+        <v>0.4221002821920627</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3975518270016177</v>
+        <v>0.3946251718350027</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4515664145985967</v>
+        <v>0.4498100853491985</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>236614</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>218130</v>
+        <v>221315</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>251622</v>
+        <v>253984</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5948891464466288</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5484182606138788</v>
+        <v>0.5564246881853881</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6326231558403944</v>
+        <v>0.6385603108103172</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>453</v>
@@ -7858,19 +7858,19 @@
         <v>241118</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>224390</v>
+        <v>227695</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256040</v>
+        <v>255917</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5621453620523419</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5231441136464632</v>
+        <v>0.5308502635667266</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5969338524788926</v>
+        <v>0.5966466543974707</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>785</v>
@@ -7879,19 +7879,19 @@
         <v>477732</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>453373</v>
+        <v>454825</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>498025</v>
+        <v>500445</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5778997178079373</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5484335854014033</v>
+        <v>0.5501899146508015</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6024481729983824</v>
+        <v>0.6053748281649968</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>79349</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>67551</v>
+        <v>67831</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93263</v>
+        <v>92821</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2615649667175248</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2226764718904886</v>
+        <v>0.2235987082719249</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3074325976568893</v>
+        <v>0.3059742023707372</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>246</v>
@@ -8004,19 +8004,19 @@
         <v>131329</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>117430</v>
+        <v>117013</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>148319</v>
+        <v>147281</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2946009737049632</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2634216925882062</v>
+        <v>0.2624876820954</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3327144562236962</v>
+        <v>0.3303844596110544</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>358</v>
@@ -8025,19 +8025,19 @@
         <v>210678</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>191535</v>
+        <v>192066</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>231103</v>
+        <v>230534</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2812233261832258</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.255670796399811</v>
+        <v>0.2563790105070391</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3084877345593345</v>
+        <v>0.3077286287195368</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>224012</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210098</v>
+        <v>210540</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>235810</v>
+        <v>235530</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7384350332824753</v>
+        <v>0.7384350332824751</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6925674023431106</v>
+        <v>0.6940257976292625</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7773235281095116</v>
+        <v>0.7764012917280751</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>604</v>
@@ -8075,19 +8075,19 @@
         <v>314457</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>297467</v>
+        <v>298505</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>328356</v>
+        <v>328773</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7053990262950369</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6672855437763038</v>
+        <v>0.6696155403889456</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.736578307411794</v>
+        <v>0.7375123179045999</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>939</v>
@@ -8096,19 +8096,19 @@
         <v>538469</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>518044</v>
+        <v>518613</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>557612</v>
+        <v>557081</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7187766738167743</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6915122654406656</v>
+        <v>0.6922713712804629</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7443292036001891</v>
+        <v>0.743620989492961</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1602266</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1532421</v>
+        <v>1536278</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1662699</v>
+        <v>1669147</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4715726327480701</v>
+        <v>0.47157263274807</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4510162393338584</v>
+        <v>0.4521513841531291</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4893591295586825</v>
+        <v>0.4912570417859246</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2518</v>
@@ -8221,19 +8221,19 @@
         <v>1763564</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1711344</v>
+        <v>1705492</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1815875</v>
+        <v>1814464</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4864402435980973</v>
+        <v>0.4864402435980972</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4720364379870138</v>
+        <v>0.4704223073461752</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5008690912610059</v>
+        <v>0.5004800340746792</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3991</v>
@@ -8242,19 +8242,19 @@
         <v>3365829</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3286868</v>
+        <v>3280309</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3455665</v>
+        <v>3448101</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4792474951632352</v>
+        <v>0.4792474951632351</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4680045221935678</v>
+        <v>0.4670705891539168</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4920387784287189</v>
+        <v>0.4909618351721852</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>1795441</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1735008</v>
+        <v>1728560</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1865286</v>
+        <v>1861429</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5284273672519298</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5106408704413173</v>
+        <v>0.5087429582140752</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5489837606661416</v>
+        <v>0.5478486158468708</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2699</v>
@@ -8292,19 +8292,19 @@
         <v>1861884</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1809573</v>
+        <v>1810984</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1914104</v>
+        <v>1919956</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5135597564019027</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4991309087389942</v>
+        <v>0.4995199659253208</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.527963562012986</v>
+        <v>0.5295776926538247</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4479</v>
@@ -8313,19 +8313,19 @@
         <v>3657326</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3567490</v>
+        <v>3575054</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3736287</v>
+        <v>3742846</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5207525048367649</v>
+        <v>0.5207525048367648</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5079612215712811</v>
+        <v>0.5090381648278147</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5319954778064321</v>
+        <v>0.5329294108460831</v>
       </c>
     </row>
     <row r="27">
